--- a/Ekstraklasa-Statystyki.xlsx
+++ b/Ekstraklasa-Statystyki.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szakm\OneDrive\Pulpit\Studia\Projekt_Python\projekt_na_studia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671BFC81-1FA2-4780-A4E5-69571F561121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E91F72-CB60-4729-9BE0-103768FC16BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="2295" windowWidth="28710" windowHeight="15450" activeTab="1" xr2:uid="{8C9CF297-F678-420E-9989-9B96A21E9734}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{8C9CF297-F678-420E-9989-9B96A21E9734}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId2"/>
+    <sheet name="STATY" sheetId="1" r:id="rId1"/>
+    <sheet name="MECZE" sheetId="4" r:id="rId2"/>
+    <sheet name="MOC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="218">
   <si>
     <t>Kluby</t>
   </si>
@@ -570,7 +571,127 @@
     <t>MOC4</t>
   </si>
   <si>
-    <t>Raków Cz</t>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Jagielonia Białystok</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>Jagiellonia Białystok</t>
+  </si>
+  <si>
+    <t>KGHM Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Śląsk Wrocław</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korona Kielce </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stal Mielec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cracovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raków Częstochowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radomiak Radom </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Korona Kielce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raków Częstochowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Widzew Łódź</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Górnik Zabrze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legia Warszawa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miedź Legnica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piast Gliwice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lechia Gdańsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piast Gliwice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagiellonia Białystok </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miedź Legnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zagłębie Lubin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Radomiak Radom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lechia Gdańsk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lech Poznań</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pogoń Szczecin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warta Poznań </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisła Płock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Śląsk Wrocław </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cracovia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warta Poznań</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lech Poznań </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Górnik Zabrze </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jagiellonia Białystok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pogoń Szczecin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stal Mielec </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legia Warszawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widzew Łódź </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wisła Płock</t>
   </si>
 </sst>
 </file>
@@ -581,7 +702,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,8 +819,32 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,8 +857,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1388,12 +1538,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1800,66 +2009,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1876,24 +2025,100 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
+    <cellStyle name="Uwaga" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2207,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD5A2E2-DF9B-4F42-B3D4-611B1433DE90}">
   <dimension ref="B1:AL98"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO92" sqref="AO92"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN98" sqref="AN98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,89 +2447,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="136" t="s">
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="136" t="s">
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="136" t="s">
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="136" t="s">
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="136" t="s">
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
       <c r="AK1" s="151" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="2:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="148"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="161"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="150"/>
+      <c r="AH2" s="150"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="150"/>
       <c r="AK2" s="152"/>
     </row>
     <row r="3" spans="2:38" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2413,8 +2638,8 @@
       <c r="AJ3" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="AK3" s="154"/>
-      <c r="AL3" s="162" t="s">
+      <c r="AK3" s="162"/>
+      <c r="AL3" s="142" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2537,8 +2762,8 @@
         <f>AI4/AH4</f>
         <v>0.10995565840442122</v>
       </c>
-      <c r="AK4" s="154"/>
-      <c r="AL4" s="163">
+      <c r="AK4" s="162"/>
+      <c r="AL4" s="143">
         <f>(I4*1)+(D4*3)+(F4*(-1))+(V4*10)+(W4*(-5)+(AB4*(-0.1))+(AD4*(-1))+(AJ4*20))</f>
         <v>10.850464519439775</v>
       </c>
@@ -2662,8 +2887,8 @@
         <f t="shared" ref="AJ5:AJ19" si="12">AI5/AH5</f>
         <v>8.8810690796363806E-2</v>
       </c>
-      <c r="AK5" s="154"/>
-      <c r="AL5" s="156">
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="136">
         <f t="shared" ref="AL5:AL19" si="13">(I5*1)+(D5*3)+(F5*(-1))+(V5*10)+(W5*(-5)+(AB5*(-0.1))+(AD5*(-1))+(AJ5*20))</f>
         <v>37.42756516727863</v>
       </c>
@@ -2787,8 +3012,8 @@
         <f t="shared" si="12"/>
         <v>9.4775239417683302E-2</v>
       </c>
-      <c r="AK6" s="154"/>
-      <c r="AL6" s="156">
+      <c r="AK6" s="162"/>
+      <c r="AL6" s="136">
         <f t="shared" si="13"/>
         <v>13.406315599164479</v>
       </c>
@@ -2912,8 +3137,8 @@
         <f t="shared" si="12"/>
         <v>0.1116581231284576</v>
       </c>
-      <c r="AK7" s="154"/>
-      <c r="AL7" s="156">
+      <c r="AK7" s="162"/>
+      <c r="AL7" s="136">
         <f t="shared" si="13"/>
         <v>37.271000300406982</v>
       </c>
@@ -3037,8 +3262,8 @@
         <f t="shared" si="12"/>
         <v>7.5963135710949925E-2</v>
       </c>
-      <c r="AK8" s="154"/>
-      <c r="AL8" s="156">
+      <c r="AK8" s="162"/>
+      <c r="AL8" s="136">
         <f t="shared" si="13"/>
         <v>-0.92668323172694755</v>
       </c>
@@ -3162,8 +3387,8 @@
         <f t="shared" si="12"/>
         <v>0.10268512359170916</v>
       </c>
-      <c r="AK9" s="154"/>
-      <c r="AL9" s="156">
+      <c r="AK9" s="162"/>
+      <c r="AL9" s="136">
         <f t="shared" si="13"/>
         <v>29.310459228590936</v>
       </c>
@@ -3287,8 +3512,8 @@
         <f t="shared" si="12"/>
         <v>0.1158426667454712</v>
       </c>
-      <c r="AK10" s="154"/>
-      <c r="AL10" s="156">
+      <c r="AK10" s="162"/>
+      <c r="AL10" s="136">
         <f t="shared" si="13"/>
         <v>62.476312794368887</v>
       </c>
@@ -3411,8 +3636,8 @@
         <f t="shared" si="12"/>
         <v>0.10407533792946845</v>
       </c>
-      <c r="AK11" s="154"/>
-      <c r="AL11" s="156">
+      <c r="AK11" s="162"/>
+      <c r="AL11" s="136">
         <f t="shared" si="13"/>
         <v>70.011236488319099</v>
       </c>
@@ -3536,8 +3761,8 @@
         <f t="shared" si="12"/>
         <v>7.7949215103806743E-2</v>
       </c>
-      <c r="AK12" s="154"/>
-      <c r="AL12" s="156">
+      <c r="AK12" s="162"/>
+      <c r="AL12" s="136">
         <f t="shared" si="13"/>
         <v>-18.613988670896841</v>
       </c>
@@ -3661,8 +3886,8 @@
         <f t="shared" si="12"/>
         <v>0.12147805439279333</v>
       </c>
-      <c r="AK13" s="154"/>
-      <c r="AL13" s="156">
+      <c r="AK13" s="162"/>
+      <c r="AL13" s="136">
         <f t="shared" si="13"/>
         <v>84.075507033801813</v>
       </c>
@@ -3786,8 +4011,8 @@
         <f t="shared" si="12"/>
         <v>0.10407462401049403</v>
       </c>
-      <c r="AK14" s="154"/>
-      <c r="AL14" s="156">
+      <c r="AK14" s="162"/>
+      <c r="AL14" s="136">
         <f t="shared" si="13"/>
         <v>32.289600588317988</v>
       </c>
@@ -3911,8 +4136,8 @@
         <f t="shared" si="12"/>
         <v>9.7491435009542202E-2</v>
       </c>
-      <c r="AK15" s="154"/>
-      <c r="AL15" s="156">
+      <c r="AK15" s="162"/>
+      <c r="AL15" s="136">
         <f t="shared" si="13"/>
         <v>18.811990862353007</v>
       </c>
@@ -4036,8 +4261,8 @@
         <f t="shared" si="12"/>
         <v>0.14805274129941176</v>
       </c>
-      <c r="AK16" s="154"/>
-      <c r="AL16" s="156">
+      <c r="AK16" s="162"/>
+      <c r="AL16" s="136">
         <f t="shared" si="13"/>
         <v>34.455649420582837</v>
       </c>
@@ -4161,8 +4386,8 @@
         <f t="shared" si="12"/>
         <v>0.10026730026730027</v>
       </c>
-      <c r="AK17" s="154"/>
-      <c r="AL17" s="156">
+      <c r="AK17" s="162"/>
+      <c r="AL17" s="136">
         <f t="shared" si="13"/>
         <v>3.3810216810216787</v>
       </c>
@@ -4286,8 +4511,8 @@
         <f t="shared" si="12"/>
         <v>0.11945752231044901</v>
       </c>
-      <c r="AK18" s="154"/>
-      <c r="AL18" s="156">
+      <c r="AK18" s="162"/>
+      <c r="AL18" s="136">
         <f t="shared" si="13"/>
         <v>38.908069365127901</v>
       </c>
@@ -4411,8 +4636,8 @@
         <f t="shared" si="12"/>
         <v>0.1009446681300973</v>
       </c>
-      <c r="AK19" s="155"/>
-      <c r="AL19" s="156">
+      <c r="AK19" s="163"/>
+      <c r="AL19" s="136">
         <f t="shared" si="13"/>
         <v>-40.648674204965616</v>
       </c>
@@ -4493,89 +4718,89 @@
     </row>
     <row r="26" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D27" s="145" t="s">
+      <c r="D27" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="136" t="s">
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="138"/>
-      <c r="P27" s="136" t="s">
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="136" t="s">
+      <c r="Q27" s="148"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="160"/>
+      <c r="V27" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="136" t="s">
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="138"/>
-      <c r="AF27" s="136" t="s">
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="160"/>
+      <c r="AF27" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="AG27" s="137"/>
-      <c r="AH27" s="137"/>
-      <c r="AI27" s="137"/>
-      <c r="AJ27" s="138"/>
+      <c r="AG27" s="148"/>
+      <c r="AH27" s="148"/>
+      <c r="AI27" s="148"/>
+      <c r="AJ27" s="160"/>
       <c r="AK27" s="151" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="139"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="140"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="140"/>
-      <c r="X28" s="140"/>
-      <c r="Y28" s="140"/>
-      <c r="Z28" s="140"/>
-      <c r="AA28" s="140"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="140"/>
-      <c r="AE28" s="141"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="140"/>
-      <c r="AI28" s="140"/>
-      <c r="AJ28" s="141"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="161"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="150"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="150"/>
+      <c r="AE28" s="161"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="150"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="161"/>
       <c r="AK28" s="152"/>
     </row>
     <row r="29" spans="2:38" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4685,7 +4910,7 @@
         <v>130</v>
       </c>
       <c r="AK29" s="152"/>
-      <c r="AL29" s="162" t="s">
+      <c r="AL29" s="142" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4806,7 +5031,7 @@
         <v>8.8967971530249101E-2</v>
       </c>
       <c r="AK30" s="152"/>
-      <c r="AL30" s="163">
+      <c r="AL30" s="143">
         <f>(I30*2)+(D30*6)+(F30*(-2))+(V30*20)+(W30*(-10)+(AB30*(-0.2))+(AD30*(-2))+(AJ30*40))</f>
         <v>-25.965605463114365</v>
       </c>
@@ -4928,7 +5153,7 @@
         <v>8.2797954872396939E-2</v>
       </c>
       <c r="AK31" s="152"/>
-      <c r="AL31" s="156">
+      <c r="AL31" s="136">
         <f t="shared" ref="AL31:AL45" si="36">(I31*2)+(D31*6)+(F31*(-2))+(V31*20)+(W31*(-10)+(AB31*(-0.2))+(AD31*(-2))+(AJ31*40))</f>
         <v>81.987593870571544</v>
       </c>
@@ -5050,7 +5275,7 @@
         <v>9.738646526880651E-2</v>
       </c>
       <c r="AK32" s="152"/>
-      <c r="AL32" s="156">
+      <c r="AL32" s="136">
         <f t="shared" si="36"/>
         <v>63.960323475617116</v>
       </c>
@@ -5172,7 +5397,7 @@
         <v>8.2868439581866418E-2</v>
       </c>
       <c r="AK33" s="152"/>
-      <c r="AL33" s="156">
+      <c r="AL33" s="136">
         <f t="shared" si="36"/>
         <v>43.67689974543682</v>
       </c>
@@ -5294,7 +5519,7 @@
         <v>5.2566018933731938E-2</v>
       </c>
       <c r="AK34" s="152"/>
-      <c r="AL34" s="156">
+      <c r="AL34" s="136">
         <f t="shared" si="36"/>
         <v>-43.394656539948024</v>
       </c>
@@ -5416,7 +5641,7 @@
         <v>0.11204954954954954</v>
       </c>
       <c r="AK35" s="152"/>
-      <c r="AL35" s="156">
+      <c r="AL35" s="136">
         <f t="shared" si="36"/>
         <v>182.46036036036037</v>
       </c>
@@ -5538,7 +5763,7 @@
         <v>0.10727166072825237</v>
       </c>
       <c r="AK36" s="152"/>
-      <c r="AL36" s="156">
+      <c r="AL36" s="136">
         <f t="shared" si="36"/>
         <v>56.123298861562532</v>
       </c>
@@ -5659,7 +5884,7 @@
         <v>0.10920481650717016</v>
       </c>
       <c r="AK37" s="152"/>
-      <c r="AL37" s="156">
+      <c r="AL37" s="136">
         <f t="shared" si="36"/>
         <v>186.94657103866518</v>
       </c>
@@ -5781,7 +6006,7 @@
         <v>7.463451703174756E-2</v>
       </c>
       <c r="AK38" s="152"/>
-      <c r="AL38" s="156">
+      <c r="AL38" s="136">
         <f t="shared" si="36"/>
         <v>99.698894194783406</v>
       </c>
@@ -5903,12 +6128,12 @@
         <v>7.2254335260115612E-2</v>
       </c>
       <c r="AK39" s="152"/>
-      <c r="AL39" s="156">
+      <c r="AL39" s="136">
         <f t="shared" si="36"/>
         <v>52.149632869864078</v>
       </c>
     </row>
-    <row r="40" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:38" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="110">
         <v>11</v>
       </c>
@@ -6025,7 +6250,7 @@
         <v>9.2063416150553565E-2</v>
       </c>
       <c r="AK40" s="152"/>
-      <c r="AL40" s="156">
+      <c r="AL40" s="136">
         <f t="shared" si="36"/>
         <v>50.714969078454573</v>
       </c>
@@ -6147,7 +6372,7 @@
         <v>0.10234232298270121</v>
       </c>
       <c r="AK41" s="152"/>
-      <c r="AL41" s="156">
+      <c r="AL41" s="136">
         <f t="shared" si="36"/>
         <v>1.5423415679567043</v>
       </c>
@@ -6269,7 +6494,7 @@
         <v>0.11102556829693262</v>
       </c>
       <c r="AK42" s="152"/>
-      <c r="AL42" s="156">
+      <c r="AL42" s="136">
         <f t="shared" si="36"/>
         <v>29.970752461607027</v>
       </c>
@@ -6391,7 +6616,7 @@
         <v>0.10693498353001375</v>
       </c>
       <c r="AK43" s="152"/>
-      <c r="AL43" s="156">
+      <c r="AL43" s="136">
         <f t="shared" si="36"/>
         <v>84.126047989849184</v>
       </c>
@@ -6513,7 +6738,7 @@
         <v>6.1439652770649743E-2</v>
       </c>
       <c r="AK44" s="152"/>
-      <c r="AL44" s="156">
+      <c r="AL44" s="136">
         <f t="shared" si="36"/>
         <v>-114.88295442971454</v>
       </c>
@@ -6635,97 +6860,97 @@
         <v>0.10570670399206834</v>
       </c>
       <c r="AK45" s="153"/>
-      <c r="AL45" s="156">
+      <c r="AL45" s="136">
         <f t="shared" si="36"/>
         <v>69.963403294817866</v>
       </c>
     </row>
     <row r="51" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="D52" s="145" t="s">
+      <c r="D52" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="146"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="147"/>
-      <c r="J52" s="136" t="s">
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="K52" s="137"/>
-      <c r="L52" s="137"/>
-      <c r="M52" s="137"/>
-      <c r="N52" s="137"/>
-      <c r="O52" s="138"/>
-      <c r="P52" s="136" t="s">
+      <c r="K52" s="148"/>
+      <c r="L52" s="148"/>
+      <c r="M52" s="148"/>
+      <c r="N52" s="148"/>
+      <c r="O52" s="160"/>
+      <c r="P52" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="Q52" s="137"/>
-      <c r="R52" s="137"/>
-      <c r="S52" s="137"/>
-      <c r="T52" s="137"/>
-      <c r="U52" s="138"/>
-      <c r="V52" s="136" t="s">
+      <c r="Q52" s="148"/>
+      <c r="R52" s="148"/>
+      <c r="S52" s="148"/>
+      <c r="T52" s="148"/>
+      <c r="U52" s="160"/>
+      <c r="V52" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="W52" s="137"/>
-      <c r="X52" s="137"/>
-      <c r="Y52" s="137"/>
-      <c r="Z52" s="137"/>
-      <c r="AA52" s="138"/>
-      <c r="AB52" s="136" t="s">
+      <c r="W52" s="148"/>
+      <c r="X52" s="148"/>
+      <c r="Y52" s="148"/>
+      <c r="Z52" s="148"/>
+      <c r="AA52" s="160"/>
+      <c r="AB52" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="AC52" s="137"/>
-      <c r="AD52" s="137"/>
-      <c r="AE52" s="138"/>
-      <c r="AF52" s="136" t="s">
+      <c r="AC52" s="148"/>
+      <c r="AD52" s="148"/>
+      <c r="AE52" s="160"/>
+      <c r="AF52" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="AG52" s="137"/>
-      <c r="AH52" s="137"/>
-      <c r="AI52" s="137"/>
-      <c r="AJ52" s="138"/>
-      <c r="AK52" s="142" t="s">
+      <c r="AG52" s="148"/>
+      <c r="AH52" s="148"/>
+      <c r="AI52" s="148"/>
+      <c r="AJ52" s="160"/>
+      <c r="AK52" s="164" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="53" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="148"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="139"/>
-      <c r="K53" s="140"/>
-      <c r="L53" s="140"/>
-      <c r="M53" s="140"/>
-      <c r="N53" s="140"/>
-      <c r="O53" s="141"/>
-      <c r="P53" s="139"/>
-      <c r="Q53" s="140"/>
-      <c r="R53" s="140"/>
-      <c r="S53" s="140"/>
-      <c r="T53" s="140"/>
-      <c r="U53" s="141"/>
-      <c r="V53" s="139"/>
-      <c r="W53" s="140"/>
-      <c r="X53" s="140"/>
-      <c r="Y53" s="140"/>
-      <c r="Z53" s="140"/>
-      <c r="AA53" s="141"/>
-      <c r="AB53" s="139"/>
-      <c r="AC53" s="140"/>
-      <c r="AD53" s="140"/>
-      <c r="AE53" s="141"/>
-      <c r="AF53" s="139"/>
-      <c r="AG53" s="140"/>
-      <c r="AH53" s="140"/>
-      <c r="AI53" s="140"/>
-      <c r="AJ53" s="141"/>
-      <c r="AK53" s="143"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="159"/>
+      <c r="J53" s="149"/>
+      <c r="K53" s="150"/>
+      <c r="L53" s="150"/>
+      <c r="M53" s="150"/>
+      <c r="N53" s="150"/>
+      <c r="O53" s="161"/>
+      <c r="P53" s="149"/>
+      <c r="Q53" s="150"/>
+      <c r="R53" s="150"/>
+      <c r="S53" s="150"/>
+      <c r="T53" s="150"/>
+      <c r="U53" s="161"/>
+      <c r="V53" s="149"/>
+      <c r="W53" s="150"/>
+      <c r="X53" s="150"/>
+      <c r="Y53" s="150"/>
+      <c r="Z53" s="150"/>
+      <c r="AA53" s="161"/>
+      <c r="AB53" s="149"/>
+      <c r="AC53" s="150"/>
+      <c r="AD53" s="150"/>
+      <c r="AE53" s="161"/>
+      <c r="AF53" s="149"/>
+      <c r="AG53" s="150"/>
+      <c r="AH53" s="150"/>
+      <c r="AI53" s="150"/>
+      <c r="AJ53" s="161"/>
+      <c r="AK53" s="165"/>
     </row>
     <row r="54" spans="2:38" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B54" s="115" t="s">
@@ -6833,8 +7058,8 @@
       <c r="AJ54" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="AK54" s="143"/>
-      <c r="AL54" s="162" t="s">
+      <c r="AK54" s="165"/>
+      <c r="AL54" s="142" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6954,8 +7179,8 @@
         <f>AI55/AH55</f>
         <v>7.4689513839164473E-2</v>
       </c>
-      <c r="AK55" s="143"/>
-      <c r="AL55" s="163">
+      <c r="AK55" s="165"/>
+      <c r="AL55" s="143">
         <f>(I55*3)+(D55*9)+(F55*(-3))+(V55*30)+(W55*(-15)+(AB55*(-0.3))+(AD55*(-3))+(AJ55*60))</f>
         <v>11.981370830349867</v>
       </c>
@@ -7076,8 +7301,8 @@
         <f t="shared" ref="AJ56:AJ70" si="50">AI56/AH56</f>
         <v>7.3209791809654534E-2</v>
       </c>
-      <c r="AK56" s="143"/>
-      <c r="AL56" s="156">
+      <c r="AK56" s="165"/>
+      <c r="AL56" s="136">
         <f t="shared" ref="AL56:AL70" si="51">(I56*3)+(D56*9)+(F56*(-3))+(V56*30)+(W56*(-15)+(AB56*(-0.3))+(AD56*(-3))+(AJ56*60))</f>
         <v>44.392587508579268</v>
       </c>
@@ -7198,8 +7423,8 @@
         <f t="shared" si="50"/>
         <v>0.11277620099941196</v>
       </c>
-      <c r="AK57" s="143"/>
-      <c r="AL57" s="156">
+      <c r="AK57" s="165"/>
+      <c r="AL57" s="136">
         <f t="shared" si="51"/>
         <v>10.066572059964713</v>
       </c>
@@ -7320,8 +7545,8 @@
         <f t="shared" si="50"/>
         <v>7.9054526945345788E-2</v>
       </c>
-      <c r="AK58" s="143"/>
-      <c r="AL58" s="156">
+      <c r="AK58" s="165"/>
+      <c r="AL58" s="136">
         <f t="shared" si="51"/>
         <v>59.843271616720749</v>
       </c>
@@ -7442,8 +7667,8 @@
         <f t="shared" si="50"/>
         <v>9.6962172722591944E-2</v>
       </c>
-      <c r="AK59" s="143"/>
-      <c r="AL59" s="156">
+      <c r="AK59" s="165"/>
+      <c r="AL59" s="136">
         <f t="shared" si="51"/>
         <v>68.717730363355514</v>
       </c>
@@ -7564,8 +7789,8 @@
         <f t="shared" si="50"/>
         <v>0.10433061834343725</v>
       </c>
-      <c r="AK60" s="143"/>
-      <c r="AL60" s="156">
+      <c r="AK60" s="165"/>
+      <c r="AL60" s="136">
         <f t="shared" si="51"/>
         <v>253.75983710060623</v>
       </c>
@@ -7686,8 +7911,8 @@
         <f t="shared" si="50"/>
         <v>9.6471185580096458E-2</v>
       </c>
-      <c r="AK61" s="143"/>
-      <c r="AL61" s="156">
+      <c r="AK61" s="165"/>
+      <c r="AL61" s="136">
         <f t="shared" si="51"/>
         <v>102.58827113480578</v>
       </c>
@@ -7807,8 +8032,8 @@
         <f t="shared" si="50"/>
         <v>8.1871345029239775E-2</v>
       </c>
-      <c r="AK62" s="143"/>
-      <c r="AL62" s="156">
+      <c r="AK62" s="165"/>
+      <c r="AL62" s="136">
         <f t="shared" si="51"/>
         <v>-117.28771929824562</v>
       </c>
@@ -7929,13 +8154,13 @@
         <f t="shared" si="50"/>
         <v>8.5092381962684163E-2</v>
       </c>
-      <c r="AK63" s="143"/>
-      <c r="AL63" s="156">
+      <c r="AK63" s="165"/>
+      <c r="AL63" s="136">
         <f t="shared" si="51"/>
         <v>155.00554291776106</v>
       </c>
     </row>
-    <row r="64" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:38" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="110">
         <v>10</v>
       </c>
@@ -8051,8 +8276,8 @@
         <f t="shared" si="50"/>
         <v>0.11194445062648832</v>
       </c>
-      <c r="AK64" s="143"/>
-      <c r="AL64" s="156">
+      <c r="AK64" s="165"/>
+      <c r="AL64" s="136">
         <f t="shared" si="51"/>
         <v>217.8166670375893</v>
       </c>
@@ -8173,8 +8398,8 @@
         <f t="shared" si="50"/>
         <v>8.4033613445378158E-2</v>
       </c>
-      <c r="AK65" s="143"/>
-      <c r="AL65" s="156">
+      <c r="AK65" s="165"/>
+      <c r="AL65" s="136">
         <f t="shared" si="51"/>
         <v>-45.657983193277303</v>
       </c>
@@ -8295,8 +8520,8 @@
         <f t="shared" si="50"/>
         <v>9.9468218338760322E-2</v>
       </c>
-      <c r="AK66" s="143"/>
-      <c r="AL66" s="156">
+      <c r="AK66" s="165"/>
+      <c r="AL66" s="136">
         <f t="shared" si="51"/>
         <v>78.468093100325618</v>
       </c>
@@ -8417,8 +8642,8 @@
         <f t="shared" si="50"/>
         <v>0.10906113346922419</v>
       </c>
-      <c r="AK67" s="143"/>
-      <c r="AL67" s="156">
+      <c r="AK67" s="165"/>
+      <c r="AL67" s="136">
         <f t="shared" si="51"/>
         <v>29.34366800815345</v>
       </c>
@@ -8539,8 +8764,8 @@
         <f t="shared" si="50"/>
         <v>9.1145833333333329E-2</v>
       </c>
-      <c r="AK68" s="143"/>
-      <c r="AL68" s="156">
+      <c r="AK68" s="165"/>
+      <c r="AL68" s="136">
         <f t="shared" si="51"/>
         <v>5.7687499999999972</v>
       </c>
@@ -8661,8 +8886,8 @@
         <f t="shared" si="50"/>
         <v>0.11434190195252142</v>
       </c>
-      <c r="AK69" s="143"/>
-      <c r="AL69" s="156">
+      <c r="AK69" s="165"/>
+      <c r="AL69" s="136">
         <f t="shared" si="51"/>
         <v>63.560514117151286</v>
       </c>
@@ -8783,104 +9008,104 @@
         <f t="shared" si="50"/>
         <v>0.10386851345058006</v>
       </c>
-      <c r="AK70" s="144"/>
-      <c r="AL70" s="156">
+      <c r="AK70" s="166"/>
+      <c r="AL70" s="136">
         <f t="shared" si="51"/>
         <v>82.032110807034798</v>
       </c>
     </row>
     <row r="77" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="145" t="s">
+      <c r="D78" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="146"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="146"/>
-      <c r="H78" s="146"/>
-      <c r="I78" s="147"/>
-      <c r="J78" s="136" t="s">
+      <c r="E78" s="155"/>
+      <c r="F78" s="155"/>
+      <c r="G78" s="155"/>
+      <c r="H78" s="155"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="K78" s="137"/>
-      <c r="L78" s="137"/>
-      <c r="M78" s="137"/>
-      <c r="N78" s="137"/>
-      <c r="O78" s="138"/>
-      <c r="P78" s="136" t="s">
+      <c r="K78" s="148"/>
+      <c r="L78" s="148"/>
+      <c r="M78" s="148"/>
+      <c r="N78" s="148"/>
+      <c r="O78" s="160"/>
+      <c r="P78" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="Q78" s="137"/>
-      <c r="R78" s="137"/>
-      <c r="S78" s="137"/>
-      <c r="T78" s="137"/>
-      <c r="U78" s="138"/>
-      <c r="V78" s="136" t="s">
+      <c r="Q78" s="148"/>
+      <c r="R78" s="148"/>
+      <c r="S78" s="148"/>
+      <c r="T78" s="148"/>
+      <c r="U78" s="160"/>
+      <c r="V78" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="W78" s="137"/>
-      <c r="X78" s="137"/>
-      <c r="Y78" s="137"/>
-      <c r="Z78" s="137"/>
-      <c r="AA78" s="138"/>
-      <c r="AB78" s="136" t="s">
+      <c r="W78" s="148"/>
+      <c r="X78" s="148"/>
+      <c r="Y78" s="148"/>
+      <c r="Z78" s="148"/>
+      <c r="AA78" s="160"/>
+      <c r="AB78" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="AC78" s="137"/>
-      <c r="AD78" s="137"/>
-      <c r="AE78" s="138"/>
-      <c r="AF78" s="136" t="s">
+      <c r="AC78" s="148"/>
+      <c r="AD78" s="148"/>
+      <c r="AE78" s="160"/>
+      <c r="AF78" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="AG78" s="137"/>
-      <c r="AH78" s="137"/>
-      <c r="AI78" s="137"/>
-      <c r="AJ78" s="137"/>
+      <c r="AG78" s="148"/>
+      <c r="AH78" s="148"/>
+      <c r="AI78" s="148"/>
+      <c r="AJ78" s="148"/>
       <c r="AK78" s="151" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="79" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="148"/>
-      <c r="E79" s="149"/>
-      <c r="F79" s="149"/>
-      <c r="G79" s="149"/>
-      <c r="H79" s="149"/>
-      <c r="I79" s="150"/>
-      <c r="J79" s="139"/>
-      <c r="K79" s="140"/>
-      <c r="L79" s="140"/>
-      <c r="M79" s="140"/>
-      <c r="N79" s="140"/>
-      <c r="O79" s="141"/>
-      <c r="P79" s="139"/>
-      <c r="Q79" s="140"/>
-      <c r="R79" s="140"/>
-      <c r="S79" s="140"/>
-      <c r="T79" s="140"/>
-      <c r="U79" s="141"/>
-      <c r="V79" s="139"/>
-      <c r="W79" s="140"/>
-      <c r="X79" s="140"/>
-      <c r="Y79" s="140"/>
-      <c r="Z79" s="140"/>
-      <c r="AA79" s="141"/>
-      <c r="AB79" s="139"/>
-      <c r="AC79" s="140"/>
-      <c r="AD79" s="140"/>
-      <c r="AE79" s="141"/>
-      <c r="AF79" s="139"/>
-      <c r="AG79" s="140"/>
-      <c r="AH79" s="140"/>
-      <c r="AI79" s="140"/>
-      <c r="AJ79" s="140"/>
+      <c r="D79" s="157"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
+      <c r="G79" s="158"/>
+      <c r="H79" s="158"/>
+      <c r="I79" s="159"/>
+      <c r="J79" s="149"/>
+      <c r="K79" s="150"/>
+      <c r="L79" s="150"/>
+      <c r="M79" s="150"/>
+      <c r="N79" s="150"/>
+      <c r="O79" s="161"/>
+      <c r="P79" s="149"/>
+      <c r="Q79" s="150"/>
+      <c r="R79" s="150"/>
+      <c r="S79" s="150"/>
+      <c r="T79" s="150"/>
+      <c r="U79" s="161"/>
+      <c r="V79" s="149"/>
+      <c r="W79" s="150"/>
+      <c r="X79" s="150"/>
+      <c r="Y79" s="150"/>
+      <c r="Z79" s="150"/>
+      <c r="AA79" s="161"/>
+      <c r="AB79" s="149"/>
+      <c r="AC79" s="150"/>
+      <c r="AD79" s="150"/>
+      <c r="AE79" s="161"/>
+      <c r="AF79" s="149"/>
+      <c r="AG79" s="150"/>
+      <c r="AH79" s="150"/>
+      <c r="AI79" s="150"/>
+      <c r="AJ79" s="150"/>
       <c r="AK79" s="152"/>
     </row>
     <row r="80" spans="2:38" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="157" t="s">
+      <c r="B80" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="158" t="s">
+      <c r="C80" s="138" t="s">
         <v>0</v>
       </c>
       <c r="D80" s="15" t="s">
@@ -8898,7 +9123,7 @@
       <c r="H80" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="I80" s="159" t="s">
+      <c r="I80" s="139" t="s">
         <v>145</v>
       </c>
       <c r="J80" s="15" t="s">
@@ -8916,7 +9141,7 @@
       <c r="N80" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="O80" s="159" t="s">
+      <c r="O80" s="139" t="s">
         <v>151</v>
       </c>
       <c r="P80" s="15" t="s">
@@ -8934,7 +9159,7 @@
       <c r="T80" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="U80" s="159" t="s">
+      <c r="U80" s="139" t="s">
         <v>157</v>
       </c>
       <c r="V80" s="15" t="s">
@@ -8952,7 +9177,7 @@
       <c r="Z80" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="AA80" s="159" t="s">
+      <c r="AA80" s="139" t="s">
         <v>163</v>
       </c>
       <c r="AB80" s="15" t="s">
@@ -8964,7 +9189,7 @@
       <c r="AD80" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="AE80" s="159" t="s">
+      <c r="AE80" s="139" t="s">
         <v>167</v>
       </c>
       <c r="AF80" s="15" t="s">
@@ -8983,15 +9208,15 @@
         <v>143</v>
       </c>
       <c r="AK80" s="152"/>
-      <c r="AL80" s="162" t="s">
+      <c r="AL80" s="142" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="81" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="160">
+      <c r="B81" s="140">
         <v>1</v>
       </c>
-      <c r="C81" s="164" t="s">
+      <c r="C81" s="144" t="s">
         <v>132</v>
       </c>
       <c r="D81" s="73">
@@ -9049,7 +9274,7 @@
         <v>-13</v>
       </c>
       <c r="V81" s="24">
-        <f t="shared" ref="V81:V99" si="53">G81/SUM(D81:F81)</f>
+        <f t="shared" ref="V81:V98" si="53">G81/SUM(D81:F81)</f>
         <v>1.0588235294117647</v>
       </c>
       <c r="W81" s="24">
@@ -9072,17 +9297,17 @@
         <f t="shared" ref="AA81:AA87" si="58">T81/SUM(P81:R81)</f>
         <v>1.7647058823529411</v>
       </c>
-      <c r="AB81" s="166">
+      <c r="AB81" s="145">
         <v>80</v>
       </c>
       <c r="AC81" s="24">
         <f t="shared" ref="AC81:AC98" si="59">AB81/SUM(D81:F81)</f>
         <v>2.3529411764705883</v>
       </c>
-      <c r="AD81" s="166">
+      <c r="AD81" s="145">
         <v>1</v>
       </c>
-      <c r="AE81" s="161">
+      <c r="AE81" s="141">
         <f t="shared" ref="AE81:AE98" si="60">AD81/SUM(D81:F81)</f>
         <v>2.9411764705882353E-2</v>
       </c>
@@ -9104,16 +9329,16 @@
         <v>8.82964201827416E-2</v>
       </c>
       <c r="AK81" s="152"/>
-      <c r="AL81" s="167">
+      <c r="AL81" s="146">
         <f>(I81*4)+(D81*12)+(F81*(-4))+(V81*40)+(W81*(-20)+(AB81*(-0.4))+(AD81*(-4))+(AJ81*80))</f>
         <v>-79.524521679498321</v>
       </c>
     </row>
     <row r="82" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="160">
+      <c r="B82" s="140">
         <v>2</v>
       </c>
-      <c r="C82" s="164" t="s">
+      <c r="C82" s="144" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="73">
@@ -9194,17 +9419,17 @@
         <f t="shared" si="58"/>
         <v>1.3529411764705883</v>
       </c>
-      <c r="AB82" s="166">
+      <c r="AB82" s="145">
         <v>74</v>
       </c>
       <c r="AC82" s="24">
         <f t="shared" si="59"/>
         <v>2.1764705882352939</v>
       </c>
-      <c r="AD82" s="166">
+      <c r="AD82" s="145">
         <v>2</v>
       </c>
-      <c r="AE82" s="161">
+      <c r="AE82" s="141">
         <f t="shared" si="60"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -9226,16 +9451,16 @@
         <v>9.3204775022956834E-2</v>
       </c>
       <c r="AK82" s="152"/>
-      <c r="AL82" s="167">
+      <c r="AL82" s="146">
         <f t="shared" ref="AL82:AL98" si="63">(I82*4)+(D82*12)+(F82*(-4))+(V82*40)+(W82*(-20)+(AB82*(-0.4))+(AD82*(-4))+(AJ82*80))</f>
         <v>80.20932317830713</v>
       </c>
     </row>
     <row r="83" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="160">
+      <c r="B83" s="140">
         <v>3</v>
       </c>
-      <c r="C83" s="164" t="s">
+      <c r="C83" s="144" t="s">
         <v>37</v>
       </c>
       <c r="D83" s="73">
@@ -9316,17 +9541,17 @@
         <f t="shared" si="58"/>
         <v>2</v>
       </c>
-      <c r="AB83" s="166">
+      <c r="AB83" s="145">
         <v>75</v>
       </c>
       <c r="AC83" s="24">
         <f t="shared" si="59"/>
         <v>2.2058823529411766</v>
       </c>
-      <c r="AD83" s="166">
+      <c r="AD83" s="145">
         <v>4</v>
       </c>
-      <c r="AE83" s="161">
+      <c r="AE83" s="141">
         <f t="shared" si="60"/>
         <v>0.11764705882352941</v>
       </c>
@@ -9348,16 +9573,16 @@
         <v>8.6172724609206691E-2</v>
       </c>
       <c r="AK83" s="152"/>
-      <c r="AL83" s="167">
+      <c r="AL83" s="146">
         <f t="shared" si="63"/>
         <v>97.246759145207108</v>
       </c>
     </row>
     <row r="84" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="160">
+      <c r="B84" s="140">
         <v>4</v>
       </c>
-      <c r="C84" s="164" t="s">
+      <c r="C84" s="144" t="s">
         <v>133</v>
       </c>
       <c r="D84" s="73">
@@ -9438,17 +9663,17 @@
         <f t="shared" si="58"/>
         <v>1.9411764705882353</v>
       </c>
-      <c r="AB84" s="166">
+      <c r="AB84" s="145">
         <v>67</v>
       </c>
       <c r="AC84" s="24">
         <f t="shared" si="59"/>
         <v>1.9705882352941178</v>
       </c>
-      <c r="AD84" s="166">
+      <c r="AD84" s="145">
         <v>1</v>
       </c>
-      <c r="AE84" s="161">
+      <c r="AE84" s="141">
         <f t="shared" si="60"/>
         <v>2.9411764705882353E-2</v>
       </c>
@@ -9470,16 +9695,16 @@
         <v>0.11796560978129512</v>
       </c>
       <c r="AK84" s="152"/>
-      <c r="AL84" s="167">
+      <c r="AL84" s="146">
         <f t="shared" si="63"/>
         <v>-146.53922180573167</v>
       </c>
     </row>
     <row r="85" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="160">
+      <c r="B85" s="140">
         <v>5</v>
       </c>
-      <c r="C85" s="164" t="s">
+      <c r="C85" s="144" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="73">
@@ -9560,17 +9785,17 @@
         <f t="shared" si="58"/>
         <v>1.7647058823529411</v>
       </c>
-      <c r="AB85" s="166">
+      <c r="AB85" s="145">
         <v>87</v>
       </c>
       <c r="AC85" s="24">
         <f t="shared" si="59"/>
         <v>2.5588235294117645</v>
       </c>
-      <c r="AD85" s="166">
+      <c r="AD85" s="145">
         <v>3</v>
       </c>
-      <c r="AE85" s="161">
+      <c r="AE85" s="141">
         <f t="shared" si="60"/>
         <v>8.8235294117647065E-2</v>
       </c>
@@ -9592,16 +9817,16 @@
         <v>9.5058776101078393E-2</v>
       </c>
       <c r="AK85" s="152"/>
-      <c r="AL85" s="167">
+      <c r="AL85" s="146">
         <f t="shared" si="63"/>
         <v>-6.724709676619625</v>
       </c>
     </row>
     <row r="86" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="160">
+      <c r="B86" s="140">
         <v>6</v>
       </c>
-      <c r="C86" s="164" t="s">
+      <c r="C86" s="144" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="73">
@@ -9682,17 +9907,17 @@
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
-      <c r="AB86" s="166">
+      <c r="AB86" s="145">
         <v>52</v>
       </c>
       <c r="AC86" s="24">
         <f t="shared" si="59"/>
         <v>1.5294117647058822</v>
       </c>
-      <c r="AD86" s="166">
+      <c r="AD86" s="145">
         <v>2</v>
       </c>
-      <c r="AE86" s="161">
+      <c r="AE86" s="141">
         <f t="shared" si="60"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -9714,16 +9939,16 @@
         <v>0.11367767679006871</v>
       </c>
       <c r="AK86" s="152"/>
-      <c r="AL86" s="167">
+      <c r="AL86" s="146">
         <f t="shared" si="63"/>
         <v>465.00009649614668</v>
       </c>
     </row>
     <row r="87" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="160">
+      <c r="B87" s="140">
         <v>7</v>
       </c>
-      <c r="C87" s="164" t="s">
+      <c r="C87" s="144" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="73">
@@ -9804,17 +10029,17 @@
         <f t="shared" si="58"/>
         <v>1.6470588235294117</v>
       </c>
-      <c r="AB87" s="166">
+      <c r="AB87" s="145">
         <v>74</v>
       </c>
       <c r="AC87" s="24">
         <f t="shared" si="59"/>
         <v>2.1764705882352939</v>
       </c>
-      <c r="AD87" s="166">
+      <c r="AD87" s="145">
         <v>1</v>
       </c>
-      <c r="AE87" s="161">
+      <c r="AE87" s="141">
         <f t="shared" si="60"/>
         <v>2.9411764705882353E-2</v>
       </c>
@@ -9836,16 +10061,16 @@
         <v>0.10795548912140839</v>
       </c>
       <c r="AK87" s="152"/>
-      <c r="AL87" s="167">
+      <c r="AL87" s="146">
         <f t="shared" si="63"/>
         <v>221.27173324735975</v>
       </c>
     </row>
     <row r="88" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="160">
+      <c r="B88" s="140">
         <v>8</v>
       </c>
-      <c r="C88" s="164" t="s">
+      <c r="C88" s="144" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="73">
@@ -9925,17 +10150,17 @@
       <c r="AA88" s="24">
         <v>1</v>
       </c>
-      <c r="AB88" s="166">
+      <c r="AB88" s="145">
         <v>96</v>
       </c>
       <c r="AC88" s="24">
         <f t="shared" si="59"/>
         <v>2.8235294117647061</v>
       </c>
-      <c r="AD88" s="166">
+      <c r="AD88" s="145">
         <v>5</v>
       </c>
-      <c r="AE88" s="161">
+      <c r="AE88" s="141">
         <f t="shared" si="60"/>
         <v>0.14705882352941177</v>
       </c>
@@ -9957,16 +10182,16 @@
         <v>9.6693010728950521E-2</v>
       </c>
       <c r="AK88" s="152"/>
-      <c r="AL88" s="167">
+      <c r="AL88" s="146">
         <f t="shared" si="63"/>
         <v>55.217793799492512</v>
       </c>
     </row>
     <row r="89" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="160">
+      <c r="B89" s="140">
         <v>9</v>
       </c>
-      <c r="C89" s="164" t="s">
+      <c r="C89" s="144" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="73">
@@ -10047,17 +10272,17 @@
         <f t="shared" ref="AA89:AA96" si="64">T89/SUM(P89:R89)</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="AB89" s="166">
+      <c r="AB89" s="145">
         <v>50</v>
       </c>
       <c r="AC89" s="24">
         <f t="shared" si="59"/>
         <v>1.4705882352941178</v>
       </c>
-      <c r="AD89" s="166">
+      <c r="AD89" s="145">
         <v>0</v>
       </c>
-      <c r="AE89" s="161">
+      <c r="AE89" s="141">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
@@ -10079,16 +10304,16 @@
         <v>0.11398609369656901</v>
       </c>
       <c r="AK89" s="152"/>
-      <c r="AL89" s="167">
+      <c r="AL89" s="146">
         <f t="shared" si="63"/>
         <v>192.29535808396082</v>
       </c>
     </row>
     <row r="90" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="160">
+      <c r="B90" s="140">
         <v>10</v>
       </c>
-      <c r="C90" s="164" t="s">
+      <c r="C90" s="144" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="73">
@@ -10169,17 +10394,17 @@
         <f t="shared" si="64"/>
         <v>0.70588235294117652</v>
       </c>
-      <c r="AB90" s="166">
+      <c r="AB90" s="145">
         <v>63</v>
       </c>
       <c r="AC90" s="24">
         <f t="shared" si="59"/>
         <v>1.8529411764705883</v>
       </c>
-      <c r="AD90" s="166">
+      <c r="AD90" s="145">
         <v>3</v>
       </c>
-      <c r="AE90" s="161">
+      <c r="AE90" s="141">
         <f t="shared" si="60"/>
         <v>8.8235294117647065E-2</v>
       </c>
@@ -10201,16 +10426,16 @@
         <v>0.11658229789845069</v>
       </c>
       <c r="AK90" s="152"/>
-      <c r="AL90" s="167">
+      <c r="AL90" s="146">
         <f t="shared" si="63"/>
         <v>352.00893677305254</v>
       </c>
     </row>
     <row r="91" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="160">
+      <c r="B91" s="140">
         <v>11</v>
       </c>
-      <c r="C91" s="164" t="s">
+      <c r="C91" s="144" t="s">
         <v>134</v>
       </c>
       <c r="D91" s="73">
@@ -10291,17 +10516,17 @@
         <f t="shared" si="64"/>
         <v>1.0588235294117647</v>
       </c>
-      <c r="AB91" s="166">
+      <c r="AB91" s="145">
         <v>72</v>
       </c>
       <c r="AC91" s="24">
         <f t="shared" si="59"/>
         <v>2.1176470588235294</v>
       </c>
-      <c r="AD91" s="166">
+      <c r="AD91" s="145">
         <v>4</v>
       </c>
-      <c r="AE91" s="161">
+      <c r="AE91" s="141">
         <f t="shared" si="60"/>
         <v>0.11764705882352941</v>
       </c>
@@ -10323,16 +10548,16 @@
         <v>9.0044230752778329E-2</v>
       </c>
       <c r="AK91" s="152"/>
-      <c r="AL91" s="167">
+      <c r="AL91" s="146">
         <f t="shared" si="63"/>
         <v>96.285891401398743</v>
       </c>
     </row>
-    <row r="92" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="160">
+    <row r="92" spans="2:38" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B92" s="140">
         <v>12</v>
       </c>
-      <c r="C92" s="164" t="s">
+      <c r="C92" s="144" t="s">
         <v>88</v>
       </c>
       <c r="D92" s="73">
@@ -10413,17 +10638,17 @@
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
-      <c r="AB92" s="166">
+      <c r="AB92" s="145">
         <v>77</v>
       </c>
       <c r="AC92" s="24">
         <f t="shared" si="59"/>
         <v>2.2647058823529411</v>
       </c>
-      <c r="AD92" s="166">
+      <c r="AD92" s="145">
         <v>4</v>
       </c>
-      <c r="AE92" s="161">
+      <c r="AE92" s="141">
         <f t="shared" si="60"/>
         <v>0.11764705882352941</v>
       </c>
@@ -10445,16 +10670,16 @@
         <v>0.12514334702784549</v>
       </c>
       <c r="AK92" s="152"/>
-      <c r="AL92" s="167">
+      <c r="AL92" s="146">
         <f t="shared" si="63"/>
         <v>356.15264423281587</v>
       </c>
     </row>
     <row r="93" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="160">
+      <c r="B93" s="140">
         <v>13</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="C93" s="144" t="s">
         <v>93</v>
       </c>
       <c r="D93" s="73">
@@ -10535,17 +10760,17 @@
         <f t="shared" si="64"/>
         <v>1.8235294117647058</v>
       </c>
-      <c r="AB93" s="166">
+      <c r="AB93" s="145">
         <v>76</v>
       </c>
       <c r="AC93" s="24">
         <f t="shared" si="59"/>
         <v>2.2352941176470589</v>
       </c>
-      <c r="AD93" s="166">
+      <c r="AD93" s="145">
         <v>3</v>
       </c>
-      <c r="AE93" s="161">
+      <c r="AE93" s="141">
         <f t="shared" si="60"/>
         <v>8.8235294117647065E-2</v>
       </c>
@@ -10567,16 +10792,16 @@
         <v>0.11141083046480721</v>
       </c>
       <c r="AK93" s="152"/>
-      <c r="AL93" s="167">
+      <c r="AL93" s="146">
         <f t="shared" si="63"/>
         <v>-22.193015915756604</v>
       </c>
     </row>
     <row r="94" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="160">
+      <c r="B94" s="140">
         <v>14</v>
       </c>
-      <c r="C94" s="164" t="s">
+      <c r="C94" s="144" t="s">
         <v>94</v>
       </c>
       <c r="D94" s="73">
@@ -10657,17 +10882,17 @@
         <f t="shared" si="64"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="AB94" s="166">
+      <c r="AB94" s="145">
         <v>73</v>
       </c>
       <c r="AC94" s="24">
         <f t="shared" si="59"/>
         <v>2.1470588235294117</v>
       </c>
-      <c r="AD94" s="166">
+      <c r="AD94" s="145">
         <v>5</v>
       </c>
-      <c r="AE94" s="161">
+      <c r="AE94" s="141">
         <f t="shared" si="60"/>
         <v>0.14705882352941177</v>
       </c>
@@ -10689,16 +10914,16 @@
         <v>9.4680553147794999E-2</v>
       </c>
       <c r="AK94" s="152"/>
-      <c r="AL94" s="167">
+      <c r="AL94" s="146">
         <f t="shared" si="63"/>
         <v>41.197973663588293</v>
       </c>
     </row>
     <row r="95" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="160">
+      <c r="B95" s="140">
         <v>15</v>
       </c>
-      <c r="C95" s="164" t="s">
+      <c r="C95" s="144" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="73">
@@ -10779,17 +11004,17 @@
         <f t="shared" si="64"/>
         <v>1.9411764705882353</v>
       </c>
-      <c r="AB95" s="166">
+      <c r="AB95" s="145">
         <v>69</v>
       </c>
       <c r="AC95" s="24">
         <f t="shared" si="59"/>
         <v>2.0294117647058822</v>
       </c>
-      <c r="AD95" s="166">
+      <c r="AD95" s="145">
         <v>2</v>
       </c>
-      <c r="AE95" s="161">
+      <c r="AE95" s="141">
         <f t="shared" si="60"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -10811,16 +11036,16 @@
         <v>9.940357852882703E-2</v>
       </c>
       <c r="AK95" s="152"/>
-      <c r="AL95" s="167">
+      <c r="AL95" s="146">
         <f t="shared" si="63"/>
         <v>-67.883007835340891</v>
       </c>
     </row>
     <row r="96" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="160">
+      <c r="B96" s="140">
         <v>16</v>
       </c>
-      <c r="C96" s="164" t="s">
+      <c r="C96" s="144" t="s">
         <v>36</v>
       </c>
       <c r="D96" s="73">
@@ -10901,17 +11126,17 @@
         <f t="shared" si="64"/>
         <v>2.1764705882352939</v>
       </c>
-      <c r="AB96" s="166">
+      <c r="AB96" s="145">
         <v>68</v>
       </c>
       <c r="AC96" s="24">
         <f t="shared" si="59"/>
         <v>2</v>
       </c>
-      <c r="AD96" s="166">
+      <c r="AD96" s="145">
         <v>3</v>
       </c>
-      <c r="AE96" s="161">
+      <c r="AE96" s="141">
         <f t="shared" si="60"/>
         <v>8.8235294117647065E-2</v>
       </c>
@@ -10933,16 +11158,16 @@
         <v>8.4197952289209579E-2</v>
       </c>
       <c r="AK96" s="152"/>
-      <c r="AL96" s="167">
+      <c r="AL96" s="146">
         <f t="shared" si="63"/>
         <v>98.006424418430882</v>
       </c>
     </row>
     <row r="97" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="160">
+      <c r="B97" s="140">
         <v>17</v>
       </c>
-      <c r="C97" s="164" t="s">
+      <c r="C97" s="144" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="73">
@@ -11023,17 +11248,17 @@
         <f t="shared" ref="AA97:AA98" si="69">L97/SUM(I97:K97)</f>
         <v>-1.1666666666666667</v>
       </c>
-      <c r="AB97" s="166">
+      <c r="AB97" s="145">
         <v>95</v>
       </c>
       <c r="AC97" s="24">
         <f t="shared" si="59"/>
         <v>2.7941176470588234</v>
       </c>
-      <c r="AD97" s="166">
+      <c r="AD97" s="145">
         <v>5</v>
       </c>
-      <c r="AE97" s="161">
+      <c r="AE97" s="141">
         <f t="shared" si="60"/>
         <v>0.14705882352941177</v>
       </c>
@@ -11055,16 +11280,16 @@
         <v>0.12916418274007552</v>
       </c>
       <c r="AK97" s="152"/>
-      <c r="AL97" s="167">
+      <c r="AL97" s="146">
         <f t="shared" si="63"/>
         <v>-18.957417965464181</v>
       </c>
     </row>
     <row r="98" spans="2:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="160">
+      <c r="B98" s="140">
         <v>18</v>
       </c>
-      <c r="C98" s="165" t="s">
+      <c r="C98" s="144" t="s">
         <v>31</v>
       </c>
       <c r="D98" s="73">
@@ -11145,17 +11370,17 @@
         <f t="shared" si="69"/>
         <v>6</v>
       </c>
-      <c r="AB98" s="166">
+      <c r="AB98" s="145">
         <v>83</v>
       </c>
       <c r="AC98" s="24">
         <f t="shared" si="59"/>
         <v>2.4411764705882355</v>
       </c>
-      <c r="AD98" s="166">
+      <c r="AD98" s="145">
         <v>4</v>
       </c>
-      <c r="AE98" s="161">
+      <c r="AE98" s="141">
         <f t="shared" si="60"/>
         <v>0.11764705882352941</v>
       </c>
@@ -11177,7 +11402,7 @@
         <v>9.1418282728441297E-2</v>
       </c>
       <c r="AK98" s="153"/>
-      <c r="AL98" s="167">
+      <c r="AL98" s="146">
         <f t="shared" si="63"/>
         <v>-15.547236443958283</v>
       </c>
@@ -11187,13 +11412,13 @@
     <sortCondition ref="C19"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="AF78:AJ79"/>
-    <mergeCell ref="AK78:AK98"/>
-    <mergeCell ref="D78:I79"/>
-    <mergeCell ref="J78:O79"/>
-    <mergeCell ref="P78:U79"/>
-    <mergeCell ref="V78:AA79"/>
-    <mergeCell ref="AB78:AE79"/>
+    <mergeCell ref="AF52:AJ53"/>
+    <mergeCell ref="AK52:AK70"/>
+    <mergeCell ref="D52:I53"/>
+    <mergeCell ref="J52:O53"/>
+    <mergeCell ref="P52:U53"/>
+    <mergeCell ref="V52:AA53"/>
+    <mergeCell ref="AB52:AE53"/>
     <mergeCell ref="AF1:AJ2"/>
     <mergeCell ref="AK1:AK19"/>
     <mergeCell ref="D27:I28"/>
@@ -11208,13 +11433,13 @@
     <mergeCell ref="P1:U2"/>
     <mergeCell ref="V1:AA2"/>
     <mergeCell ref="AB1:AE2"/>
-    <mergeCell ref="AF52:AJ53"/>
-    <mergeCell ref="AK52:AK70"/>
-    <mergeCell ref="D52:I53"/>
-    <mergeCell ref="J52:O53"/>
-    <mergeCell ref="P52:U53"/>
-    <mergeCell ref="V52:AA53"/>
-    <mergeCell ref="AB52:AE53"/>
+    <mergeCell ref="AF78:AJ79"/>
+    <mergeCell ref="AK78:AK98"/>
+    <mergeCell ref="D78:I79"/>
+    <mergeCell ref="J78:O79"/>
+    <mergeCell ref="P78:U79"/>
+    <mergeCell ref="V78:AA79"/>
+    <mergeCell ref="AB78:AE79"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11223,41 +11448,2889 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D25DD99-ED66-4190-943C-2046A5E43EC5}">
-  <dimension ref="B2:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E175160-7742-4486-980A-F4063741B3EE}">
+  <dimension ref="A1:B306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="172" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="172" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="172" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="172" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="172" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="173" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="172" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="173" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="172" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="173" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="172" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="174" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="174" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="173" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="174" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="173" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="173" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="174" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="173" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="174" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="173" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="173" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="174" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="173" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="173" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="173" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="173" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="173" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="173" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="174" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="173" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="172" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="174" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="173" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="173" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="174" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="174" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="173" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="174" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="173" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="173" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="174" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="174" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="173" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="173" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="173" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="173" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="173" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="173" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="173" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="173" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="173" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="173" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B117" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B119" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B127" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B128" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B129" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B130" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B133" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B136" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B137" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B140" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B144" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B145" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B146" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B147" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B149" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B150" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B151" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B152" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B153" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B154" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B155" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B156" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B157" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B158" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B159" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B160" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B161" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B163" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B165" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B166" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B167" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B170" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B171" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B172" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B173" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B174" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B175" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B176" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B177" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B178" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B179" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B180" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B181" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B182" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B184" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B186" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B189" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B192" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B195" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B200" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B201" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B202" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B203" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B204" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B205" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B206" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B207" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B208" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B209" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B210" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B211" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B212" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B213" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B214" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B215" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B216" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B217" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B218" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B219" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B220" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B221" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B222" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B223" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B224" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B225" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B226" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B227" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B228" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B229" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B230" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B231" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B232" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B233" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B234" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B235" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B236" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B237" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B238" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B239" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B240" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B241" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B242" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B243" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B244" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B245" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B246" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B247" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B248" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B249" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B250" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B251" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B252" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B253" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B254" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B255" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B256" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B257" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B258" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B259" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B260" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B261" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B262" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B263" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B264" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B265" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B266" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B267" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B268" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B269" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B270" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B271" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B272" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B273" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B274" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B275" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B276" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B277" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B278" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B279" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B280" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B281" s="173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B282" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B283" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B284" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B285" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B286" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B287" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B288" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B289" s="173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B290" s="173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B291" s="173" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B292" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="B293" s="173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="B294" s="173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="174" t="s">
+        <v>204</v>
+      </c>
+      <c r="B295" s="173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="B296" s="173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B297" s="173" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B298" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="B299" s="173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="B300" s="173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="174" t="s">
+        <v>192</v>
+      </c>
+      <c r="B301" s="173" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B302" s="173" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="174" t="s">
+        <v>212</v>
+      </c>
+      <c r="B303" s="173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B304" s="173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B305" s="173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="B306" s="173" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D25DD99-ED66-4190-943C-2046A5E43EC5}">
+  <dimension ref="B1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="127" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="168">
+        <v>37</v>
+      </c>
+      <c r="D3" s="168">
+        <v>82</v>
+      </c>
+      <c r="E3" s="168">
+        <v>12</v>
+      </c>
+      <c r="F3" s="169">
+        <v>80</v>
+      </c>
+      <c r="G3" s="170">
+        <f>SUM(C3:F3)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="168">
+        <v>13</v>
+      </c>
+      <c r="D4" s="168">
+        <v>64</v>
+      </c>
+      <c r="E4" s="168">
+        <v>44</v>
+      </c>
+      <c r="F4" s="169">
+        <v>97</v>
+      </c>
+      <c r="G4" s="170">
+        <f t="shared" ref="G4:G20" si="0">SUM(C4:F4)</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="167" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="168">
+        <v>37</v>
+      </c>
+      <c r="D5" s="168">
+        <v>44</v>
+      </c>
+      <c r="E5" s="168">
+        <v>10</v>
+      </c>
+      <c r="F5" s="169">
+        <v>44</v>
+      </c>
+      <c r="G5" s="170">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="167" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="168">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="168">
+        <v>-43</v>
+      </c>
+      <c r="E6" s="168">
+        <v>10</v>
+      </c>
+      <c r="F6" s="169">
+        <v>-7</v>
+      </c>
+      <c r="G6" s="170">
+        <f t="shared" si="0"/>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="168">
+        <v>29</v>
+      </c>
+      <c r="D7" s="168">
+        <v>182</v>
+      </c>
+      <c r="E7" s="168">
+        <v>60</v>
+      </c>
+      <c r="F7" s="169">
+        <v>465</v>
+      </c>
+      <c r="G7" s="170">
+        <f t="shared" si="0"/>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="168">
+        <v>62</v>
+      </c>
+      <c r="D8" s="168">
+        <v>56</v>
+      </c>
+      <c r="E8" s="168">
+        <v>69</v>
+      </c>
+      <c r="F8" s="169">
+        <v>221</v>
+      </c>
+      <c r="G8" s="170">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="168">
+        <v>70</v>
+      </c>
+      <c r="D9" s="168">
+        <v>187</v>
+      </c>
+      <c r="E9" s="168">
+        <v>254</v>
+      </c>
+      <c r="F9" s="169">
+        <v>55</v>
+      </c>
+      <c r="G9" s="170">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="168">
+        <v>-19</v>
+      </c>
+      <c r="D10" s="168">
+        <v>-50</v>
+      </c>
+      <c r="E10" s="168">
+        <v>-75</v>
+      </c>
+      <c r="F10" s="169">
+        <v>50</v>
+      </c>
+      <c r="G10" s="170">
+        <f t="shared" si="0"/>
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="168">
+        <v>84</v>
+      </c>
+      <c r="D11" s="168">
+        <v>100</v>
+      </c>
+      <c r="E11" s="168">
+        <v>-117</v>
+      </c>
+      <c r="F11" s="169">
+        <v>192</v>
+      </c>
+      <c r="G11" s="170">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="168">
+        <v>32</v>
+      </c>
+      <c r="D12" s="168">
+        <v>52</v>
+      </c>
+      <c r="E12" s="168">
+        <v>155</v>
+      </c>
+      <c r="F12" s="169">
+        <v>352</v>
+      </c>
+      <c r="G12" s="170">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="167" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="168">
+        <v>-25</v>
+      </c>
+      <c r="D13" s="168">
+        <v>-50</v>
+      </c>
+      <c r="E13" s="168">
+        <v>75</v>
+      </c>
+      <c r="F13" s="169">
+        <v>96</v>
+      </c>
+      <c r="G13" s="170">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="168">
+        <v>25</v>
+      </c>
+      <c r="D14" s="168">
+        <v>51</v>
+      </c>
+      <c r="E14" s="168">
+        <v>218</v>
+      </c>
+      <c r="F14" s="169">
+        <v>356</v>
+      </c>
+      <c r="G14" s="170">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="168">
+        <v>-25</v>
+      </c>
+      <c r="D15" s="168">
+        <v>50</v>
+      </c>
+      <c r="E15" s="168">
+        <v>-46</v>
+      </c>
+      <c r="F15" s="169">
+        <v>-22</v>
+      </c>
+      <c r="G15" s="170">
+        <f t="shared" si="0"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="167" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="168">
+        <v>19</v>
+      </c>
+      <c r="D16" s="168">
+        <v>70</v>
+      </c>
+      <c r="E16" s="168">
+        <v>82</v>
+      </c>
+      <c r="F16" s="169">
+        <v>-16</v>
+      </c>
+      <c r="G16" s="170">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="167" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="168">
+        <v>-25</v>
+      </c>
+      <c r="D17" s="168">
+        <v>50</v>
+      </c>
+      <c r="E17" s="168">
+        <v>78</v>
+      </c>
+      <c r="F17" s="169">
+        <v>41</v>
+      </c>
+      <c r="G17" s="170">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="167" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="168">
+        <v>-25</v>
+      </c>
+      <c r="D18" s="168">
+        <v>-50</v>
+      </c>
+      <c r="E18" s="168">
+        <v>-75</v>
+      </c>
+      <c r="F18" s="169">
+        <v>50</v>
+      </c>
+      <c r="G18" s="170">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="168">
+        <v>3</v>
+      </c>
+      <c r="D19" s="168">
+        <v>30</v>
+      </c>
+      <c r="E19" s="168">
+        <v>6</v>
+      </c>
+      <c r="F19" s="169">
+        <v>98</v>
+      </c>
+      <c r="G19" s="170">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="167" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="168">
+        <v>39</v>
+      </c>
+      <c r="D20" s="168">
+        <v>84</v>
+      </c>
+      <c r="E20" s="168">
+        <v>64</v>
+      </c>
+      <c r="F20" s="169">
+        <v>-19</v>
+      </c>
+      <c r="G20" s="171">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B20">
+    <sortCondition ref="B3:B20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>